--- a/Data-Visualization_project/상권별_소규모_상가_임대료_17~19(변환).xlsx
+++ b/Data-Visualization_project/상권별_소규모_상가_임대료_17~19(변환).xlsx
@@ -1,37 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="170" yWindow="-20" windowWidth="12600" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="60">
+  <si>
+    <t>지역</t>
+  </si>
+  <si>
+    <t>도심</t>
+  </si>
+  <si>
+    <t>2017 1/4</t>
+  </si>
+  <si>
+    <t>2017 2/4</t>
+  </si>
+  <si>
+    <t>2017 3/4</t>
+  </si>
+  <si>
+    <t>2017 4/4</t>
+  </si>
+  <si>
+    <t>2018 1/4</t>
+  </si>
+  <si>
+    <t>2018 2/4</t>
+  </si>
+  <si>
+    <t>2018 3/4</t>
+  </si>
+  <si>
+    <t>2018 4/4</t>
+  </si>
+  <si>
+    <t>2019 1/4</t>
+  </si>
+  <si>
+    <t>2019 2/4</t>
+  </si>
+  <si>
+    <t>2019 3/4</t>
+  </si>
+  <si>
+    <t>2019 4/4</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>소계</t>
+  </si>
+  <si>
+    <t>소계(도심지역)</t>
+  </si>
+  <si>
+    <t>광화문</t>
+  </si>
+  <si>
+    <t>남대문</t>
+  </si>
+  <si>
+    <t>동대문</t>
+  </si>
+  <si>
+    <t>명동</t>
+  </si>
+  <si>
+    <t>시청</t>
+  </si>
+  <si>
+    <t>을지로</t>
+  </si>
+  <si>
+    <t>종로</t>
+  </si>
+  <si>
+    <t>충무로</t>
+  </si>
+  <si>
+    <t>소계(강남지역)</t>
+  </si>
+  <si>
+    <t>강남대로</t>
+  </si>
+  <si>
+    <t>논현역</t>
+  </si>
+  <si>
+    <t>도산대로</t>
+  </si>
+  <si>
+    <t>서초</t>
+  </si>
+  <si>
+    <t>신사역</t>
+  </si>
+  <si>
+    <t>압구정</t>
+  </si>
+  <si>
+    <t>청담</t>
+  </si>
+  <si>
+    <t>테헤란로</t>
+  </si>
+  <si>
+    <t>소계(영등포신촌지역)</t>
+  </si>
+  <si>
+    <t>공덕역</t>
+  </si>
+  <si>
+    <t>소계(기타지역)</t>
+  </si>
+  <si>
+    <t>건대입구</t>
+  </si>
+  <si>
+    <t>경희대</t>
+  </si>
+  <si>
+    <t>군자</t>
+  </si>
+  <si>
+    <t>목동</t>
+  </si>
+  <si>
+    <t>불광역</t>
+  </si>
+  <si>
+    <t>사당</t>
+  </si>
+  <si>
+    <t>서울대입구역</t>
+  </si>
+  <si>
+    <t>성신여대</t>
+  </si>
+  <si>
+    <t>수유</t>
+  </si>
+  <si>
+    <t>신림역</t>
+  </si>
+  <si>
+    <t>오류동역</t>
+  </si>
+  <si>
+    <t>왕십리</t>
+  </si>
+  <si>
+    <t>이태원</t>
+  </si>
+  <si>
+    <t>장안동</t>
+  </si>
+  <si>
+    <t>천호</t>
+  </si>
+  <si>
+    <t>청량리</t>
+  </si>
+  <si>
+    <t>혜화동</t>
+  </si>
+  <si>
+    <t>화곡</t>
+  </si>
+  <si>
+    <t>홍대/합정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등포역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신촌/이대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실/송파</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +245,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -420,2387 +561,2177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>지역</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>도심</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2017 1/4</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2017 2/4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2017 3/4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2017 4/4</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2018 1/4</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2018 2/4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2018 3/4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2018 4/4</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2019 1/4</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2019 2/4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2019 3/4</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2019 4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:15">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>소계</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
         <v>172589</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>172920</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>172589</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>172920</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>173250</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>172589</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>173250</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>173250</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>180180</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>180510</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>180510</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>180510</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>소계(도심지역)</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>228359</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>228689</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>228689</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>228689</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>226710</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>227040</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>227700</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>228029</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>252779</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>252450</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>253109</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>253109</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>광화문</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
         <v>217470</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>217470</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>217140</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>217799</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>218129</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>220439</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>221100</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>223079</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>313500</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>313500</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>313500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>313830</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>남대문</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
         <v>142230</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>142230</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>142230</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>142230</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>141239</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>140910</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>140910</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>140910</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>249810</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>248820</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>248820</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>248820</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>동대문</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
         <v>800579</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>797280</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>797280</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>794640</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>794640</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>794640</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>794640</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>793979</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>145860</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>145530</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>145530</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>145200</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>명동</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
         <v>225390</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>226049</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>226049</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>227370</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>228359</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>228689</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>231329</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>231329</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>864930</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>864930</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>864930</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>864599</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>시청</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
         <v>219779</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>220109</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>220439</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>220770</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>214170</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>214170</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>214170</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>213839</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>321420</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>321420</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>321420</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>321420</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>을지로</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
         <v>155430</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>156089</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>156089</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>156089</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>154110</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>154110</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>155760</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>155760</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>209549</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>209219</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>208890</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>208890</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>종로</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
         <v>185460</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>185790</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>185790</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>186119</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>192060</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>191399</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>191730</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>191730</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>245850</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>246510</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>248489</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>248820</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>충무로</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
         <v>203939</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>203939</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>203939</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>206250</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>206250</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>205920</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>205589</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>205260</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>160710</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>160710</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>160049</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>161369</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>소계(강남지역)</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
         <v>168630</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>168630</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>168630</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>168630</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>168630</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>168630</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>168630</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>168630</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>206910</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>207239</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>207239</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>207239</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>강남대로</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
         <v>145530</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>145530</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>145530</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>145530</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>145530</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>144869</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>144869</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>144869</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>325710</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>325710</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>325710</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>326700</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>논현역</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
         <v>172589</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>168960</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>168960</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>168960</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>175890</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>175890</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>175890</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>176220</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>168960</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>168960</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>168960</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>168630</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>도산대로</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
         <v>192390</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>191730</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>191730</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>191730</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>224399</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>231989</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>231989</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>231989</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>152130</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>152130</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>152130</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>152130</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>서초</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
         <v>118800</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>118469</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>118469</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>118469</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>118139</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>118139</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>117810</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>117810</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>173579</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>173579</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>173579</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>173579</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>신사역</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
         <v>239250</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>236939</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>236939</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>236939</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>236939</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>235620</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>235950</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>235620</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>273239</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>273239</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>273570</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>273570</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>압구정</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
         <v>212520</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>220109</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>220109</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>220109</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>220109</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>213510</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>215489</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>215489</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>122429</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>126389</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>126389</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>127380</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>청담</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
         <v>145200</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>145200</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>145200</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>145200</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>145530</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>140910</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>140910</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>141239</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>211859</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>211859</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>211859</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>209880</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>테헤란로</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
         <v>140910</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>140910</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>140910</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>140910</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>140910</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>140910</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>140910</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>140910</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>207570</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>207570</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>207570</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>208560</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>소계(영등포신촌지역)</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
         <v>126389</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>126719</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>126389</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>126389</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>128369</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>128369</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>128039</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>129360</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>146189</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>146850</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>148500</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>149160</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>공덕역</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
         <v>107580</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>107580</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>107910</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>107910</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>107580</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>105929</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>106919</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>107580</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>180839</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>186780</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>188760</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>188760</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>신촌</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23">
         <v>207899</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>207570</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>207239</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>207239</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>207239</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>199649</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>199320</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>197339</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>128699</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>128039</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>128369</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>131009</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>영등포</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
         <v>145530</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>145860</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>145200</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>145200</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>145530</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>145860</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>146850</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>146850</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>108570</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>108899</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>108899</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>108899</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>홍대합정</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25">
         <v>170280</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>171269</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>171269</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>171600</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>171930</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>171930</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>172589</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>172589</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>194700</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>194369</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>202290</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>202950</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>소계(기타지역)</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26">
         <v>120780</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>120780</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>120780</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>122100</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>122429</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>123419</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>127710</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>127710</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>141900</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>142230</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>141900</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>141570</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>건대입구</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27">
         <v>104940</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>104940</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>104940</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>106260</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>106260</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>101640</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>101640</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>101640</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>173910</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>173910</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>174239</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>175890</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>경희대</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
         <v>87780</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>87780</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>87780</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>87780</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>87780</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>87780</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>87780</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>87780</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>127710</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>128039</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>128039</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>128039</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>군자</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29">
         <v>106589</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>106589</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>106589</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>106919</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>106919</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>107580</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>107910</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>107910</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>101640</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>102630</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>102630</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>102630</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>목동</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30">
         <v>198660</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>201299</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>201299</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>201299</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>201299</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>200969</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>200969</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>200969</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>87780</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30">
         <v>87780</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30">
         <v>87449</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>87449</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>불광역</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31">
         <v>283470</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>283470</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>283470</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>283470</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>283470</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>285780</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>289409</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>290400</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>113850</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>113850</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>113850</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>113850</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>사당</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32">
         <v>183149</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>183149</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>183149</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>183149</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>184799</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>183149</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>182820</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>182820</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>186450</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32">
         <v>186450</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32">
         <v>186450</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>186450</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>서울대입구역</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33">
         <v>138269</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>138269</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>138269</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>138269</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>139589</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>139920</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>141570</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>141570</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>288750</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>288750</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>288750</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>288750</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>성신여대</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
         <v>416460</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>416460</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>407879</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>407879</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>412170</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>412170</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>409860</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>405570</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>177540</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>178530</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>178530</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>178530</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>수유</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35">
         <v>128369</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>128369</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>128369</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>128699</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>132660</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>133650</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>133650</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>132660</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>123750</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>123089</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>123089</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>122760</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>신림역</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36">
         <v>149160</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>149160</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>149160</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>149489</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>151140</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>152460</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>152460</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>152460</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>178200</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>178200</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>178200</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>182820</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>오류동역</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37">
         <v>104940</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>105600</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>105929</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>106260</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>108570</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>109230</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>110219</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>110550</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>152130</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>152460</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>151470</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>151799</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>왕십리</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38">
         <v>145860</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>145860</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>145860</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>145860</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>146519</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>146519</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>165000</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>165989</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>145530</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>144540</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>143549</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38">
         <v>140579</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>용산</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39">
         <v>98669</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>99330</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>94380</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>94710</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>95369</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>96030</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>96360</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>96360</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>114510</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>114510</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>114510</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>114510</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>이태원</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40">
         <v>117810</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>117810</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>117810</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>117810</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>117810</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>118139</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>117480</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>117480</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>222420</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>222420</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>222420</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>222420</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>잠실</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41">
         <v>153780</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>153780</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>154439</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>153119</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>153119</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>153119</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>153780</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>153780</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>98340</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>98009</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>98009</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41">
         <v>98009</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>장안동</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42">
         <v>106589</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>107580</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>108570</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>108570</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>108239</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>108899</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>108899</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>109230</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>121439</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>121439</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>121439</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O42">
         <v>103949</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>천호</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
         <v>259709</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>259709</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>259709</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>259709</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>247829</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>247829</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>246839</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>245520</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>160710</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>164670</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>164670</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43">
         <v>166980</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>청량리</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44">
         <v>83160</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>83160</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>83160</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>83160</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>83160</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>83820</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>83820</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>83490</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>109889</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>109889</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>109889</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44">
         <v>109560</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>혜화동</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45">
         <v>92730</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>93059</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>92730</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>93059</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>89759</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>89759</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>88440</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>88110</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>225390</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>225390</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>225390</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>225390</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>서울</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>화곡</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46">
         <v>105270</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>105270</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>105270</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>105270</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>104609</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>105270</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>105929</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>105600</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>83160</v>
       </c>
-      <c r="M46" t="n">
+      <c r="M46">
         <v>83160</v>
       </c>
-      <c r="N46" t="n">
+      <c r="N46">
         <v>83160</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46">
         <v>83160</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>